--- a/natmiOut/OldD2/LR-pairs_lrc2p/Rgma-Neo1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Rgma-Neo1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.68706336872448</v>
+        <v>1.823996</v>
       </c>
       <c r="H2">
-        <v>1.68706336872448</v>
+        <v>3.647992</v>
       </c>
       <c r="I2">
-        <v>0.04821696483364618</v>
+        <v>0.04519532258275597</v>
       </c>
       <c r="J2">
-        <v>0.04821696483364618</v>
+        <v>0.03907135622362176</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N2">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O2">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P2">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q2">
-        <v>4.306365700352285</v>
+        <v>4.655957725544</v>
       </c>
       <c r="R2">
-        <v>4.306365700352285</v>
+        <v>18.623830902176</v>
       </c>
       <c r="S2">
-        <v>0.002784201180474693</v>
+        <v>0.002438537486556256</v>
       </c>
       <c r="T2">
-        <v>0.002784201180474693</v>
+        <v>0.001644653231107325</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.68706336872448</v>
+        <v>1.823996</v>
       </c>
       <c r="H3">
-        <v>1.68706336872448</v>
+        <v>3.647992</v>
       </c>
       <c r="I3">
-        <v>0.04821696483364618</v>
+        <v>0.04519532258275597</v>
       </c>
       <c r="J3">
-        <v>0.04821696483364618</v>
+        <v>0.03907135622362176</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N3">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O3">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P3">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q3">
-        <v>35.66297400177152</v>
+        <v>41.49072398737066</v>
       </c>
       <c r="R3">
-        <v>35.66297400177152</v>
+        <v>248.944343924224</v>
       </c>
       <c r="S3">
-        <v>0.02305723694270735</v>
+        <v>0.02173058514523793</v>
       </c>
       <c r="T3">
-        <v>0.02305723694270735</v>
+        <v>0.02198404408585082</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.68706336872448</v>
+        <v>1.823996</v>
       </c>
       <c r="H4">
-        <v>1.68706336872448</v>
+        <v>3.647992</v>
       </c>
       <c r="I4">
-        <v>0.04821696483364618</v>
+        <v>0.04519532258275597</v>
       </c>
       <c r="J4">
-        <v>0.04821696483364618</v>
+        <v>0.03907135622362176</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N4">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O4">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P4">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q4">
-        <v>0.3875210344240682</v>
+        <v>0.5137758972959999</v>
       </c>
       <c r="R4">
-        <v>0.3875210344240682</v>
+        <v>3.082655383776</v>
       </c>
       <c r="S4">
-        <v>0.0002505445650874475</v>
+        <v>0.00026908787817634</v>
       </c>
       <c r="T4">
-        <v>0.0002505445650874475</v>
+        <v>0.0002722264374041983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.68706336872448</v>
+        <v>1.823996</v>
       </c>
       <c r="H5">
-        <v>1.68706336872448</v>
+        <v>3.647992</v>
       </c>
       <c r="I5">
-        <v>0.04821696483364618</v>
+        <v>0.04519532258275597</v>
       </c>
       <c r="J5">
-        <v>0.04821696483364618</v>
+        <v>0.03907135622362176</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N5">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O5">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P5">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q5">
-        <v>0.6860237025287848</v>
+        <v>0.8297193644359999</v>
       </c>
       <c r="R5">
-        <v>0.6860237025287848</v>
+        <v>4.978316186616</v>
       </c>
       <c r="S5">
-        <v>0.000443535950107073</v>
+        <v>0.0004345618866765841</v>
       </c>
       <c r="T5">
-        <v>0.000443535950107073</v>
+        <v>0.000439630484447497</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.68706336872448</v>
+        <v>1.823996</v>
       </c>
       <c r="H6">
-        <v>1.68706336872448</v>
+        <v>3.647992</v>
       </c>
       <c r="I6">
-        <v>0.04821696483364618</v>
+        <v>0.04519532258275597</v>
       </c>
       <c r="J6">
-        <v>0.04821696483364618</v>
+        <v>0.03907135622362176</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N6">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O6">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P6">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q6">
-        <v>5.00944443830052</v>
+        <v>5.800146768352</v>
       </c>
       <c r="R6">
-        <v>5.00944443830052</v>
+        <v>34.800880610112</v>
       </c>
       <c r="S6">
-        <v>0.003238763748628622</v>
+        <v>0.003037801491314424</v>
       </c>
       <c r="T6">
-        <v>0.003238763748628622</v>
+        <v>0.003073233484637878</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.68706336872448</v>
+        <v>1.823996</v>
       </c>
       <c r="H7">
-        <v>1.68706336872448</v>
+        <v>3.647992</v>
       </c>
       <c r="I7">
-        <v>0.04821696483364618</v>
+        <v>0.04519532258275597</v>
       </c>
       <c r="J7">
-        <v>0.04821696483364618</v>
+        <v>0.03907135622362176</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N7">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O7">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P7">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q7">
-        <v>28.52557339163367</v>
+        <v>33.002182522634</v>
       </c>
       <c r="R7">
-        <v>28.52557339163367</v>
+        <v>132.008730090536</v>
       </c>
       <c r="S7">
-        <v>0.018442682446641</v>
+        <v>0.01728474869479444</v>
       </c>
       <c r="T7">
-        <v>0.018442682446641</v>
+        <v>0.01165756850017404</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>9.76095750084886</v>
+        <v>10.26769266666667</v>
       </c>
       <c r="H8">
-        <v>9.76095750084886</v>
+        <v>30.803078</v>
       </c>
       <c r="I8">
-        <v>0.2789721792827373</v>
+        <v>0.2544148574068134</v>
       </c>
       <c r="J8">
-        <v>0.2789721792827373</v>
+        <v>0.3299124650827103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N8">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O8">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P8">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q8">
-        <v>24.91563349871812</v>
+        <v>26.20945604863067</v>
       </c>
       <c r="R8">
-        <v>24.91563349871812</v>
+        <v>157.256736291784</v>
       </c>
       <c r="S8">
-        <v>0.01610874250501552</v>
+        <v>0.01372708792568922</v>
       </c>
       <c r="T8">
-        <v>0.01610874250501552</v>
+        <v>0.01388719650721574</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>9.76095750084886</v>
+        <v>10.26769266666667</v>
       </c>
       <c r="H9">
-        <v>9.76095750084886</v>
+        <v>30.803078</v>
       </c>
       <c r="I9">
-        <v>0.2789721792827373</v>
+        <v>0.2544148574068134</v>
       </c>
       <c r="J9">
-        <v>0.2789721792827373</v>
+        <v>0.3299124650827103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N9">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O9">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P9">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q9">
-        <v>206.3376990091116</v>
+        <v>233.5608205389796</v>
       </c>
       <c r="R9">
-        <v>206.3376990091116</v>
+        <v>2102.047384850816</v>
       </c>
       <c r="S9">
-        <v>0.133403827062482</v>
+        <v>0.1223264578091921</v>
       </c>
       <c r="T9">
-        <v>0.133403827062482</v>
+        <v>0.1856298546520666</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.76095750084886</v>
+        <v>10.26769266666667</v>
       </c>
       <c r="H10">
-        <v>9.76095750084886</v>
+        <v>30.803078</v>
       </c>
       <c r="I10">
-        <v>0.2789721792827373</v>
+        <v>0.2544148574068134</v>
       </c>
       <c r="J10">
-        <v>0.2789721792827373</v>
+        <v>0.3299124650827103</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N10">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O10">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P10">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q10">
-        <v>2.242106857289047</v>
+        <v>2.892162599576</v>
       </c>
       <c r="R10">
-        <v>2.242106857289047</v>
+        <v>26.029463396184</v>
       </c>
       <c r="S10">
-        <v>0.001449592764103592</v>
+        <v>0.001514757506836693</v>
       </c>
       <c r="T10">
-        <v>0.001449592764103592</v>
+        <v>0.002298637767030091</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.76095750084886</v>
+        <v>10.26769266666667</v>
       </c>
       <c r="H11">
-        <v>9.76095750084886</v>
+        <v>30.803078</v>
       </c>
       <c r="I11">
-        <v>0.2789721792827373</v>
+        <v>0.2544148574068134</v>
       </c>
       <c r="J11">
-        <v>0.2789721792827373</v>
+        <v>0.3299124650827103</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N11">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O11">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P11">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q11">
-        <v>3.96917408622369</v>
+        <v>4.670680984832667</v>
       </c>
       <c r="R11">
-        <v>3.96917408622369</v>
+        <v>42.036128863494</v>
       </c>
       <c r="S11">
-        <v>0.002566196172208394</v>
+        <v>0.002446248729186903</v>
       </c>
       <c r="T11">
-        <v>0.002566196172208394</v>
+        <v>0.003712171546323028</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.76095750084886</v>
+        <v>10.26769266666667</v>
       </c>
       <c r="H12">
-        <v>9.76095750084886</v>
+        <v>30.803078</v>
       </c>
       <c r="I12">
-        <v>0.2789721792827373</v>
+        <v>0.2544148574068134</v>
       </c>
       <c r="J12">
-        <v>0.2789721792827373</v>
+        <v>0.3299124650827103</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N12">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O12">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P12">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q12">
-        <v>28.98348406561875</v>
+        <v>32.65035912304533</v>
       </c>
       <c r="R12">
-        <v>28.98348406561875</v>
+        <v>293.853232107408</v>
       </c>
       <c r="S12">
-        <v>0.01873873613268929</v>
+        <v>0.01710048272866727</v>
       </c>
       <c r="T12">
-        <v>0.01873873613268929</v>
+        <v>0.02594990634286269</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.76095750084886</v>
+        <v>10.26769266666667</v>
       </c>
       <c r="H13">
-        <v>9.76095750084886</v>
+        <v>30.803078</v>
       </c>
       <c r="I13">
-        <v>0.2789721792827373</v>
+        <v>0.2544148574068134</v>
       </c>
       <c r="J13">
-        <v>0.2789721792827373</v>
+        <v>0.3299124650827103</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N13">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O13">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P13">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q13">
-        <v>165.0423539061228</v>
+        <v>185.7768698350457</v>
       </c>
       <c r="R13">
-        <v>165.0423539061228</v>
+        <v>1114.661219010274</v>
       </c>
       <c r="S13">
-        <v>0.1067050846462386</v>
+        <v>0.09729982270724118</v>
       </c>
       <c r="T13">
-        <v>0.1067050846462386</v>
+        <v>0.09843469826721217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.240603397120104</v>
+        <v>0.279608</v>
       </c>
       <c r="H14">
-        <v>0.240603397120104</v>
+        <v>0.838824</v>
       </c>
       <c r="I14">
-        <v>0.006876544030807231</v>
+        <v>0.0069281806301764</v>
       </c>
       <c r="J14">
-        <v>0.006876544030807231</v>
+        <v>0.008984118197880725</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N14">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O14">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P14">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q14">
-        <v>0.6141596314367423</v>
+        <v>0.7137312953120001</v>
       </c>
       <c r="R14">
-        <v>0.6141596314367423</v>
+        <v>4.282387771872</v>
       </c>
       <c r="S14">
-        <v>0.0003970735626809857</v>
+        <v>0.0003738136429800404</v>
       </c>
       <c r="T14">
-        <v>0.0003970735626809857</v>
+        <v>0.0003781736916995352</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.240603397120104</v>
+        <v>0.279608</v>
       </c>
       <c r="H15">
-        <v>0.240603397120104</v>
+        <v>0.838824</v>
       </c>
       <c r="I15">
-        <v>0.006876544030807231</v>
+        <v>0.0069281806301764</v>
       </c>
       <c r="J15">
-        <v>0.006876544030807231</v>
+        <v>0.008984118197880725</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N15">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O15">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P15">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q15">
-        <v>5.086135384896446</v>
+        <v>6.360287167658667</v>
       </c>
       <c r="R15">
-        <v>5.086135384896446</v>
+        <v>57.242584508928</v>
       </c>
       <c r="S15">
-        <v>0.003288346863231878</v>
+        <v>0.003331172574550431</v>
       </c>
       <c r="T15">
-        <v>0.003288346863231878</v>
+        <v>0.00505503953853784</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.240603397120104</v>
+        <v>0.279608</v>
       </c>
       <c r="H16">
-        <v>0.240603397120104</v>
+        <v>0.838824</v>
       </c>
       <c r="I16">
-        <v>0.006876544030807231</v>
+        <v>0.0069281806301764</v>
       </c>
       <c r="J16">
-        <v>0.006876544030807231</v>
+        <v>0.008984118197880725</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N16">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O16">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P16">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q16">
-        <v>0.05526696807389143</v>
+        <v>0.078758863008</v>
       </c>
       <c r="R16">
-        <v>0.05526696807389143</v>
+        <v>0.708829767072</v>
       </c>
       <c r="S16">
-        <v>3.573183711267203E-05</v>
+        <v>4.124960989011494E-05</v>
       </c>
       <c r="T16">
-        <v>3.573183711267203E-05</v>
+        <v>6.259609920447722E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.240603397120104</v>
+        <v>0.279608</v>
       </c>
       <c r="H17">
-        <v>0.240603397120104</v>
+        <v>0.838824</v>
       </c>
       <c r="I17">
-        <v>0.006876544030807231</v>
+        <v>0.0069281806301764</v>
       </c>
       <c r="J17">
-        <v>0.006876544030807231</v>
+        <v>0.008984118197880725</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N17">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O17">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P17">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q17">
-        <v>0.09783843120139118</v>
+        <v>0.127191162728</v>
       </c>
       <c r="R17">
-        <v>0.09783843120139118</v>
+        <v>1.144720464552</v>
       </c>
       <c r="S17">
-        <v>6.325563006049888E-05</v>
+        <v>6.661581495237178E-05</v>
       </c>
       <c r="T17">
-        <v>6.325563006049888E-05</v>
+        <v>0.000101089202357403</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.240603397120104</v>
+        <v>0.279608</v>
       </c>
       <c r="H18">
-        <v>0.240603397120104</v>
+        <v>0.838824</v>
       </c>
       <c r="I18">
-        <v>0.006876544030807231</v>
+        <v>0.0069281806301764</v>
       </c>
       <c r="J18">
-        <v>0.006876544030807231</v>
+        <v>0.008984118197880725</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N18">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O18">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P18">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q18">
-        <v>0.7144303953744112</v>
+        <v>0.889128834496</v>
       </c>
       <c r="R18">
-        <v>0.7144303953744112</v>
+        <v>8.002159510463999</v>
       </c>
       <c r="S18">
-        <v>0.0004619017725330935</v>
+        <v>0.0004656773366736788</v>
       </c>
       <c r="T18">
-        <v>0.0004619017725330935</v>
+        <v>0.0007066632833947782</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.240603397120104</v>
+        <v>0.279608</v>
       </c>
       <c r="H19">
-        <v>0.240603397120104</v>
+        <v>0.838824</v>
       </c>
       <c r="I19">
-        <v>0.006876544030807231</v>
+        <v>0.0069281806301764</v>
       </c>
       <c r="J19">
-        <v>0.006876544030807231</v>
+        <v>0.008984118197880725</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N19">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O19">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P19">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q19">
-        <v>4.068222919222654</v>
+        <v>5.059043030132001</v>
       </c>
       <c r="R19">
-        <v>4.068222919222654</v>
+        <v>30.354258180792</v>
       </c>
       <c r="S19">
-        <v>0.002630234365188103</v>
+        <v>0.002649651651129763</v>
       </c>
       <c r="T19">
-        <v>0.002630234365188103</v>
+        <v>0.002680556382686691</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.451373745660629</v>
+        <v>0.4529403333333333</v>
       </c>
       <c r="H20">
-        <v>0.451373745660629</v>
+        <v>1.358821</v>
       </c>
       <c r="I20">
-        <v>0.01290044726524083</v>
+        <v>0.0112230424166177</v>
       </c>
       <c r="J20">
-        <v>0.01290044726524083</v>
+        <v>0.01455348019818518</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N20">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O20">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P20">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q20">
-        <v>1.152167993441812</v>
+        <v>1.156181836031333</v>
       </c>
       <c r="R20">
-        <v>1.152167993441812</v>
+        <v>6.937091016188001</v>
       </c>
       <c r="S20">
-        <v>0.0007449129290583543</v>
+        <v>0.000605545177734282</v>
       </c>
       <c r="T20">
-        <v>0.0007449129290583543</v>
+        <v>0.0006126080726455778</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.451373745660629</v>
+        <v>0.4529403333333333</v>
       </c>
       <c r="H21">
-        <v>0.451373745660629</v>
+        <v>1.358821</v>
       </c>
       <c r="I21">
-        <v>0.01290044726524083</v>
+        <v>0.0112230424166177</v>
       </c>
       <c r="J21">
-        <v>0.01290044726524083</v>
+        <v>0.01455348019818518</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N21">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O21">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P21">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q21">
-        <v>9.541627454544152</v>
+        <v>10.30310502494578</v>
       </c>
       <c r="R21">
-        <v>9.541627454544152</v>
+        <v>92.72794522451201</v>
       </c>
       <c r="S21">
-        <v>0.006168962942561597</v>
+        <v>0.005396206175458965</v>
       </c>
       <c r="T21">
-        <v>0.006168962942561597</v>
+        <v>0.008188718826351566</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.451373745660629</v>
+        <v>0.4529403333333333</v>
       </c>
       <c r="H22">
-        <v>0.451373745660629</v>
+        <v>1.358821</v>
       </c>
       <c r="I22">
-        <v>0.01290044726524083</v>
+        <v>0.0112230424166177</v>
       </c>
       <c r="J22">
-        <v>0.01290044726524083</v>
+        <v>0.01455348019818518</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N22">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O22">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P22">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q22">
-        <v>0.103681239290093</v>
+        <v>0.127582421332</v>
       </c>
       <c r="R22">
-        <v>0.103681239290093</v>
+        <v>1.148241791988</v>
       </c>
       <c r="S22">
-        <v>6.703318968032397E-05</v>
+        <v>6.682073493426018E-05</v>
       </c>
       <c r="T22">
-        <v>6.703318968032397E-05</v>
+        <v>0.0001014001675168175</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.451373745660629</v>
+        <v>0.4529403333333333</v>
       </c>
       <c r="H23">
-        <v>0.451373745660629</v>
+        <v>1.358821</v>
       </c>
       <c r="I23">
-        <v>0.01290044726524083</v>
+        <v>0.0112230424166177</v>
       </c>
       <c r="J23">
-        <v>0.01290044726524083</v>
+        <v>0.01455348019818518</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N23">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O23">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P23">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q23">
-        <v>0.183545617765684</v>
+        <v>0.2060384811703333</v>
       </c>
       <c r="R23">
-        <v>0.183545617765684</v>
+        <v>1.854346330533</v>
       </c>
       <c r="S23">
-        <v>0.0001186680280340263</v>
+        <v>0.000107911752989181</v>
       </c>
       <c r="T23">
-        <v>0.0001186680280340263</v>
+        <v>0.0001637556043180556</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.451373745660629</v>
+        <v>0.4529403333333333</v>
       </c>
       <c r="H24">
-        <v>0.451373745660629</v>
+        <v>1.358821</v>
       </c>
       <c r="I24">
-        <v>0.01290044726524083</v>
+        <v>0.0112230424166177</v>
       </c>
       <c r="J24">
-        <v>0.01290044726524083</v>
+        <v>0.01455348019818518</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N24">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O24">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P24">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q24">
-        <v>1.340276685341145</v>
+        <v>1.440310401250667</v>
       </c>
       <c r="R24">
-        <v>1.340276685341145</v>
+        <v>12.962793611256</v>
       </c>
       <c r="S24">
-        <v>0.0008665311283675366</v>
+        <v>0.0007543562705600518</v>
       </c>
       <c r="T24">
-        <v>0.0008665311283675366</v>
+        <v>0.001144732279245439</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.451373745660629</v>
+        <v>0.4529403333333333</v>
       </c>
       <c r="H25">
-        <v>0.451373745660629</v>
+        <v>1.358821</v>
       </c>
       <c r="I25">
-        <v>0.01290044726524083</v>
+        <v>0.0112230424166177</v>
       </c>
       <c r="J25">
-        <v>0.01290044726524083</v>
+        <v>0.01455348019818518</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N25">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O25">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P25">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q25">
-        <v>7.632016169394783</v>
+        <v>8.195204130123834</v>
       </c>
       <c r="R25">
-        <v>7.632016169394783</v>
+        <v>49.171224780743</v>
       </c>
       <c r="S25">
-        <v>0.004934339047538996</v>
+        <v>0.00429220230494096</v>
       </c>
       <c r="T25">
-        <v>0.004934339047538996</v>
+        <v>0.004342265248107722</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.56852862763433</v>
+        <v>1.651045666666667</v>
       </c>
       <c r="H26">
-        <v>1.56852862763433</v>
+        <v>4.953137</v>
       </c>
       <c r="I26">
-        <v>0.04482919318934198</v>
+        <v>0.04090992606555134</v>
       </c>
       <c r="J26">
-        <v>0.04482919318934198</v>
+        <v>0.05304994642296398</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N26">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O26">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P26">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q26">
-        <v>4.003796186489451</v>
+        <v>4.214482283372667</v>
       </c>
       <c r="R26">
-        <v>4.003796186489451</v>
+        <v>25.286893700236</v>
       </c>
       <c r="S26">
-        <v>0.002588580451467947</v>
+        <v>0.002207316655399974</v>
       </c>
       <c r="T26">
-        <v>0.002588580451467947</v>
+        <v>0.002233062126004454</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1.56852862763433</v>
+        <v>1.651045666666667</v>
       </c>
       <c r="H27">
-        <v>1.56852862763433</v>
+        <v>4.953137</v>
       </c>
       <c r="I27">
-        <v>0.04482919318934198</v>
+        <v>0.04090992606555134</v>
       </c>
       <c r="J27">
-        <v>0.04482919318934198</v>
+        <v>0.05304994642296398</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N27">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O27">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P27">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q27">
-        <v>33.15725817142851</v>
+        <v>37.55659554418489</v>
       </c>
       <c r="R27">
-        <v>33.15725817142851</v>
+        <v>338.009359897664</v>
       </c>
       <c r="S27">
-        <v>0.02143721266743402</v>
+        <v>0.01967010258694434</v>
       </c>
       <c r="T27">
-        <v>0.02143721266743402</v>
+        <v>0.02984929302785173</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>1.56852862763433</v>
+        <v>1.651045666666667</v>
       </c>
       <c r="H28">
-        <v>1.56852862763433</v>
+        <v>4.953137</v>
       </c>
       <c r="I28">
-        <v>0.04482919318934198</v>
+        <v>0.04090992606555134</v>
       </c>
       <c r="J28">
-        <v>0.04482919318934198</v>
+        <v>0.05304994642296398</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N28">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O28">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P28">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q28">
-        <v>0.3602934232187028</v>
+        <v>0.465059939204</v>
       </c>
       <c r="R28">
-        <v>0.3602934232187028</v>
+        <v>4.185539452836</v>
       </c>
       <c r="S28">
-        <v>0.0002329410561115881</v>
+        <v>0.0002435731082828987</v>
       </c>
       <c r="T28">
-        <v>0.0002329410561115881</v>
+        <v>0.0003696211064840379</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>1.56852862763433</v>
+        <v>1.651045666666667</v>
       </c>
       <c r="H29">
-        <v>1.56852862763433</v>
+        <v>4.953137</v>
       </c>
       <c r="I29">
-        <v>0.04482919318934198</v>
+        <v>0.04090992606555134</v>
       </c>
       <c r="J29">
-        <v>0.04482919318934198</v>
+        <v>0.05304994642296398</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N29">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O29">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P29">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q29">
-        <v>0.6378229985905346</v>
+        <v>0.7510458143556666</v>
       </c>
       <c r="R29">
-        <v>0.6378229985905346</v>
+        <v>6.759412329201</v>
       </c>
       <c r="S29">
-        <v>0.0004123726755171772</v>
+        <v>0.0003933569590590468</v>
       </c>
       <c r="T29">
-        <v>0.0004123726755171772</v>
+        <v>0.0005969174326163056</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>1.56852862763433</v>
+        <v>1.651045666666667</v>
       </c>
       <c r="H30">
-        <v>1.56852862763433</v>
+        <v>4.953137</v>
       </c>
       <c r="I30">
-        <v>0.04482919318934198</v>
+        <v>0.04090992606555134</v>
       </c>
       <c r="J30">
-        <v>0.04482919318934198</v>
+        <v>0.05304994642296398</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N30">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O30">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P30">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q30">
-        <v>4.657475916840424</v>
+        <v>5.250179927981333</v>
       </c>
       <c r="R30">
-        <v>4.657475916840424</v>
+        <v>47.251619351832</v>
       </c>
       <c r="S30">
-        <v>0.003011205003940737</v>
+        <v>0.002749758765056621</v>
       </c>
       <c r="T30">
-        <v>0.003011205003940737</v>
+        <v>0.00417274667334764</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>1.56852862763433</v>
+        <v>1.651045666666667</v>
       </c>
       <c r="H31">
-        <v>1.56852862763433</v>
+        <v>4.953137</v>
       </c>
       <c r="I31">
-        <v>0.04482919318934198</v>
+        <v>0.04090992606555134</v>
       </c>
       <c r="J31">
-        <v>0.04482919318934198</v>
+        <v>0.05304994642296398</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N31">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O31">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P31">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q31">
-        <v>26.52133838830845</v>
+        <v>29.87293307909517</v>
       </c>
       <c r="R31">
-        <v>26.52133838830845</v>
+        <v>179.237598474571</v>
       </c>
       <c r="S31">
-        <v>0.01714688133487051</v>
+        <v>0.01564581799080846</v>
       </c>
       <c r="T31">
-        <v>0.01714688133487051</v>
+        <v>0.01582830605665981</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.2804730729764</v>
+        <v>25.8827875</v>
       </c>
       <c r="H32">
-        <v>21.2804730729764</v>
+        <v>51.765575</v>
       </c>
       <c r="I32">
-        <v>0.6082046713982265</v>
+        <v>0.6413286708980853</v>
       </c>
       <c r="J32">
-        <v>0.6082046713982265</v>
+        <v>0.5544286338746381</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>2.55258088118418</v>
+        <v>2.552614</v>
       </c>
       <c r="N32">
-        <v>2.55258088118418</v>
+        <v>5.105228</v>
       </c>
       <c r="O32">
-        <v>0.05774318624327541</v>
+        <v>0.05395552785558979</v>
       </c>
       <c r="P32">
-        <v>0.05774318624327541</v>
+        <v>0.04209357928847631</v>
       </c>
       <c r="Q32">
-        <v>54.32012870863431</v>
+        <v>66.068765731525</v>
       </c>
       <c r="R32">
-        <v>54.32012870863431</v>
+        <v>264.2750629261</v>
       </c>
       <c r="S32">
-        <v>0.03511967561457791</v>
+        <v>0.03460322696723002</v>
       </c>
       <c r="T32">
-        <v>0.03511967561457791</v>
+        <v>0.02333788565980368</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.2804730729764</v>
+        <v>25.8827875</v>
       </c>
       <c r="H33">
-        <v>21.2804730729764</v>
+        <v>51.765575</v>
       </c>
       <c r="I33">
-        <v>0.6082046713982265</v>
+        <v>0.6413286708980853</v>
       </c>
       <c r="J33">
-        <v>0.6082046713982265</v>
+        <v>0.5544286338746381</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>21.139083844097</v>
+        <v>22.74715733333333</v>
       </c>
       <c r="N33">
-        <v>21.139083844097</v>
+        <v>68.241472</v>
       </c>
       <c r="O33">
-        <v>0.4781976016586144</v>
+        <v>0.4808149140975291</v>
       </c>
       <c r="P33">
-        <v>0.4781976016586144</v>
+        <v>0.5626639618043182</v>
       </c>
       <c r="Q33">
-        <v>449.8497045316967</v>
+        <v>588.7598394877333</v>
       </c>
       <c r="R33">
-        <v>449.8497045316967</v>
+        <v>3532.5590369264</v>
       </c>
       <c r="S33">
-        <v>0.2908420151801976</v>
+        <v>0.3083603898061454</v>
       </c>
       <c r="T33">
-        <v>0.2908420151801976</v>
+        <v>0.3119570116736597</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.2804730729764</v>
+        <v>25.8827875</v>
       </c>
       <c r="H34">
-        <v>21.2804730729764</v>
+        <v>51.765575</v>
       </c>
       <c r="I34">
-        <v>0.6082046713982265</v>
+        <v>0.6413286708980853</v>
       </c>
       <c r="J34">
-        <v>0.6082046713982265</v>
+        <v>0.5544286338746381</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.229701528471368</v>
+        <v>0.281676</v>
       </c>
       <c r="N34">
-        <v>0.229701528471368</v>
+        <v>0.845028</v>
       </c>
       <c r="O34">
-        <v>0.005196191132143089</v>
+        <v>0.005953887765346076</v>
       </c>
       <c r="P34">
-        <v>0.005196191132143089</v>
+        <v>0.006967417149436334</v>
       </c>
       <c r="Q34">
-        <v>4.888157191456468</v>
+        <v>7.290560051849999</v>
       </c>
       <c r="R34">
-        <v>4.888157191456468</v>
+        <v>43.7433603111</v>
       </c>
       <c r="S34">
-        <v>0.003160347720047466</v>
+        <v>0.00381839892722577</v>
       </c>
       <c r="T34">
-        <v>0.003160347720047466</v>
+        <v>0.003862935571796712</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.2804730729764</v>
+        <v>25.8827875</v>
       </c>
       <c r="H35">
-        <v>21.2804730729764</v>
+        <v>51.765575</v>
       </c>
       <c r="I35">
-        <v>0.6082046713982265</v>
+        <v>0.6413286708980853</v>
       </c>
       <c r="J35">
-        <v>0.6082046713982265</v>
+        <v>0.5544286338746381</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.406637779734059</v>
+        <v>0.454891</v>
       </c>
       <c r="N35">
-        <v>0.406637779734059</v>
+        <v>1.364673</v>
       </c>
       <c r="O35">
-        <v>0.009198753003996014</v>
+        <v>0.009615196038945605</v>
       </c>
       <c r="P35">
-        <v>0.009198753003996014</v>
+        <v>0.01125198935842686</v>
       </c>
       <c r="Q35">
-        <v>8.653444322085551</v>
+        <v>11.7738470886625</v>
       </c>
       <c r="R35">
-        <v>8.653444322085551</v>
+        <v>70.643082531975</v>
       </c>
       <c r="S35">
-        <v>0.005594724548068845</v>
+        <v>0.006166500896081519</v>
       </c>
       <c r="T35">
-        <v>0.005594724548068845</v>
+        <v>0.006238425088364569</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.2804730729764</v>
+        <v>25.8827875</v>
       </c>
       <c r="H36">
-        <v>21.2804730729764</v>
+        <v>51.765575</v>
       </c>
       <c r="I36">
-        <v>0.6082046713982265</v>
+        <v>0.6413286708980853</v>
       </c>
       <c r="J36">
-        <v>0.6082046713982265</v>
+        <v>0.5544286338746381</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>2.96932796430045</v>
+        <v>3.179912</v>
       </c>
       <c r="N36">
-        <v>2.96932796430045</v>
+        <v>9.539736</v>
       </c>
       <c r="O36">
-        <v>0.06717062676596738</v>
+        <v>0.06721495317910355</v>
       </c>
       <c r="P36">
-        <v>0.06717062676596738</v>
+        <v>0.07865694415746599</v>
       </c>
       <c r="Q36">
-        <v>63.18870378913155</v>
+        <v>82.30498656469999</v>
       </c>
       <c r="R36">
-        <v>63.18870378913155</v>
+        <v>493.8299193882</v>
       </c>
       <c r="S36">
-        <v>0.04085348897980811</v>
+        <v>0.04310687658683151</v>
       </c>
       <c r="T36">
-        <v>0.04085348897980811</v>
+        <v>0.04360966209397757</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.2804730729764</v>
+        <v>25.8827875</v>
       </c>
       <c r="H37">
-        <v>21.2804730729764</v>
+        <v>51.765575</v>
       </c>
       <c r="I37">
-        <v>0.6082046713982265</v>
+        <v>0.6413286708980853</v>
       </c>
       <c r="J37">
-        <v>0.6082046713982265</v>
+        <v>0.5544286338746381</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.9084184509327</v>
+        <v>18.0933415</v>
       </c>
       <c r="N37">
-        <v>16.9084184509327</v>
+        <v>36.186683</v>
       </c>
       <c r="O37">
-        <v>0.3824936411960039</v>
+        <v>0.3824455210634858</v>
       </c>
       <c r="P37">
-        <v>0.3824936411960039</v>
+        <v>0.2983661082418763</v>
       </c>
       <c r="Q37">
-        <v>359.8191435516906</v>
+        <v>468.3061132094313</v>
       </c>
       <c r="R37">
-        <v>359.8191435516906</v>
+        <v>1873.224452837725</v>
       </c>
       <c r="S37">
-        <v>0.2326344193555267</v>
+        <v>0.2452732777145711</v>
       </c>
       <c r="T37">
-        <v>0.2326344193555267</v>
+        <v>0.1654227137870359</v>
       </c>
     </row>
   </sheetData>
